--- a/Örnek 2 - Ortalama.xlsx
+++ b/Örnek 2 - Ortalama.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9750"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sayfa1!$A$1:$G$11</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Yazılı 1</t>
   </si>
@@ -92,13 +95,19 @@
   </si>
   <si>
     <t>Bölüm</t>
+  </si>
+  <si>
+    <t>Kübra Çabuk</t>
+  </si>
+  <si>
+    <t>YBS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,9 +243,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Ofis Teması">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Ofis">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -274,9 +283,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Ofis">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -308,10 +317,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -343,10 +351,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Ofis">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -519,14 +526,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:K4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
@@ -534,7 +541,7 @@
     <col min="6" max="6" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="30">
       <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
@@ -557,7 +564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -570,11 +577,20 @@
       <c r="D2" s="1">
         <v>50</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <f>(B2+C2)/2</f>
+        <v>30</v>
+      </c>
+      <c r="F2" s="1">
+        <f>(E2*70%+D2*30%)</f>
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="str">
+        <f>IF(F2&lt;50,"kaldı","geçti")</f>
+        <v>kaldı</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -587,11 +603,20 @@
       <c r="D3" s="1">
         <v>75</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <f t="shared" ref="E3:E11" si="0">(B3+C3)/2</f>
+        <v>58.5</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F10" si="1">(E3*70%+D3*30%)</f>
+        <v>63.449999999999996</v>
+      </c>
+      <c r="G3" s="2" t="str">
+        <f t="shared" ref="G3:G11" si="2">IF(F3&lt;50,"kaldı","geçti")</f>
+        <v>geçti</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -604,18 +629,29 @@
       <c r="D4" s="1">
         <v>55</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="2"/>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="1"/>
+        <v>47.3</v>
+      </c>
+      <c r="G4" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>kaldı</v>
+      </c>
       <c r="J4" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K4" s="9"/>
-      <c r="L4" s="10"/>
+      <c r="L4" s="10">
+        <v>20215070019</v>
+      </c>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15.75">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -628,18 +664,29 @@
       <c r="D5" s="1">
         <v>100</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="2"/>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>90.199999999999989</v>
+      </c>
+      <c r="G5" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>geçti</v>
+      </c>
       <c r="J5" s="9" t="s">
         <v>24</v>
       </c>
       <c r="K5" s="9"/>
-      <c r="L5" s="10"/>
+      <c r="L5" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15.75">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -652,18 +699,29 @@
       <c r="D6" s="1">
         <v>65</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="2"/>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>44.7</v>
+      </c>
+      <c r="G6" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>kaldı</v>
+      </c>
       <c r="J6" s="9" t="s">
         <v>25</v>
       </c>
       <c r="K6" s="9"/>
-      <c r="L6" s="10"/>
+      <c r="L6" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -676,11 +734,20 @@
       <c r="D7" s="1">
         <v>50</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>51.4</v>
+      </c>
+      <c r="G7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>geçti</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -693,11 +760,20 @@
       <c r="D8" s="1">
         <v>60</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>48.8</v>
+      </c>
+      <c r="G8" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>kaldı</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -710,11 +786,20 @@
       <c r="D9" s="1">
         <v>70</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="1"/>
+        <v>72.8</v>
+      </c>
+      <c r="G9" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>geçti</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -727,11 +812,20 @@
       <c r="D10" s="1">
         <v>50</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>47.5</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="1"/>
+        <v>48.25</v>
+      </c>
+      <c r="G10" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>kaldı</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -744,11 +838,20 @@
       <c r="D11" s="1">
         <v>80</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F11" s="1">
+        <f>(E11*70%+D11*30%)</f>
+        <v>59</v>
+      </c>
+      <c r="G11" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>geçti</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -762,7 +865,7 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -776,7 +879,7 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
@@ -791,6 +894,7 @@
       <c r="H15" s="8"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G11"/>
   <mergeCells count="9">
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B14:H14"/>
